--- a/BackTest/2020-01-16 BackTest LTC.xlsx
+++ b/BackTest/2020-01-16 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,11 +748,17 @@
         <v>-1216.5867177</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60800</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +787,17 @@
         <v>-1165.9430177</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>61050</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +826,17 @@
         <v>-1286.6225177</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61200</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +865,17 @@
         <v>-1149.0549177</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>61150</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +904,17 @@
         <v>-1458.8820177</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61450</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +943,17 @@
         <v>-1349.8895177</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>61200</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +982,17 @@
         <v>-1349.8895177</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>61300</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,7 +1021,7 @@
         <v>-1396.77053423</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>61300</v>
@@ -987,7 +1029,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1018,7 +1060,7 @@
         <v>-1350.07292603</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>60800</v>
@@ -1057,7 +1099,7 @@
         <v>-1362.59892603</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>61100</v>
@@ -1096,7 +1138,7 @@
         <v>-1347.75372603</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>60950</v>
@@ -1135,9 +1177,11 @@
         <v>-1365.080537</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61100</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1172,9 +1216,11 @@
         <v>-1365.080537</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>60900</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1209,9 +1255,11 @@
         <v>-1504.959137</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60900</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1246,7 +1294,7 @@
         <v>-1808.741737</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>60400</v>
@@ -1285,7 +1333,7 @@
         <v>-1700.668937</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>60200</v>
@@ -1324,9 +1372,11 @@
         <v>-1452.651237</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>60650</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1361,9 +1411,11 @@
         <v>-1456.688637</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>60750</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1398,9 +1450,11 @@
         <v>-1429.741037</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>60600</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1435,9 +1489,11 @@
         <v>-1470.393337</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>60700</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1472,9 +1528,11 @@
         <v>-1470.393337</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>60600</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1509,9 +1567,11 @@
         <v>-1516.042737</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>60600</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1546,7 +1606,7 @@
         <v>-1730.252437</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>60300</v>
@@ -1585,7 +1645,7 @@
         <v>-1555.182437</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>60000</v>
@@ -1624,7 +1684,7 @@
         <v>-1419.57209592</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>60450</v>
@@ -1663,7 +1723,7 @@
         <v>-1951.38097843</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>60800</v>
@@ -1702,7 +1762,7 @@
         <v>-1553.01537843</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>60500</v>
@@ -1741,7 +1801,7 @@
         <v>-589.3882784299996</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>60600</v>
@@ -1780,7 +1840,7 @@
         <v>-594.2742784299995</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>60700</v>
@@ -1819,7 +1879,7 @@
         <v>-592.5508784299996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>60650</v>
@@ -1858,9 +1918,11 @@
         <v>-588.5322784299996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>60700</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1895,9 +1957,11 @@
         <v>-408.2239784299995</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>60850</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1932,7 +1996,7 @@
         <v>-257.3918784299996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>61050</v>
@@ -1971,9 +2035,11 @@
         <v>-266.3779784299996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>61150</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2008,9 +2074,11 @@
         <v>-266.3257784299996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>61050</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2045,9 +2113,11 @@
         <v>-272.3257784299996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>61250</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -11554,16 +11624,18 @@
         <v>-326.4618236099994</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L303" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
       <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
@@ -11589,11 +11661,15 @@
         <v>-325.5522236099994</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11698,15 @@
         <v>-325.8758236099994</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11655,11 +11735,15 @@
         <v>-309.5565236099994</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11688,11 +11772,15 @@
         <v>-250.9556236099994</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +11809,15 @@
         <v>-250.9709236099994</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +11846,15 @@
         <v>-240.8951236099994</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +11883,15 @@
         <v>-52.6146236099994</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +11920,15 @@
         <v>-112.7960012199994</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +11957,15 @@
         <v>-72.7499012199994</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +11994,15 @@
         <v>-10.5933012199994</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +12031,15 @@
         <v>-172.2692012199994</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +12068,15 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11985,11 +12105,15 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12018,11 +12142,15 @@
         <v>-75.04879465999942</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +12179,15 @@
         <v>-49.31759465999941</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +12216,15 @@
         <v>-75.81069465999941</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12117,11 +12253,15 @@
         <v>17.80360534000059</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12150,11 +12290,15 @@
         <v>17.80360534000059</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12183,11 +12327,15 @@
         <v>-14.96829465999942</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +12364,15 @@
         <v>-14.96829465999942</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12249,11 +12401,15 @@
         <v>-14.96829465999942</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12282,11 +12438,15 @@
         <v>-28.59719465999942</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +12475,15 @@
         <v>7.572305340000582</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12352,7 +12516,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12385,7 +12553,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12418,7 +12590,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12451,7 +12627,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12484,7 +12664,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12517,7 +12701,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12738,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12583,7 +12775,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12616,7 +12812,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12649,7 +12849,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +12886,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12715,7 +12923,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12748,7 +12960,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12781,7 +12997,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13034,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12847,7 +13071,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12880,7 +13108,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12913,7 +13145,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13182,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +13219,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13256,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13045,7 +13293,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13330,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +13367,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13144,7 +13404,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13441,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +13478,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13515,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13276,7 +13552,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13589,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +13626,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +13663,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +13700,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13441,7 +13737,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +13774,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +13811,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13540,7 +13848,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13573,7 +13885,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13606,7 +13922,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13639,7 +13959,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13672,7 +13996,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13705,7 +14033,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13738,7 +14070,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13771,7 +14107,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13804,7 +14144,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +14181,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13870,7 +14218,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13903,7 +14255,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13936,7 +14292,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +14329,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14002,7 +14366,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14035,7 +14403,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14068,7 +14440,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +14477,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14134,7 +14514,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14551,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +14588,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14233,7 +14625,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14266,7 +14662,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14299,7 +14699,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14736,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +14773,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +14810,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14431,7 +14847,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +14884,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +14921,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +14958,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14995,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +15032,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +15069,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14662,7 +15106,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14695,7 +15143,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14728,7 +15180,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14761,7 +15217,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14794,7 +15254,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +15291,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +15328,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14893,7 +15365,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +15402,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +15439,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +15476,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +15513,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +15550,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +15587,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +15624,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15157,7 +15661,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15190,7 +15698,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15223,7 +15735,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15256,7 +15772,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15289,7 +15809,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +15846,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +15883,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15388,7 +15920,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15421,7 +15957,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15454,7 +15994,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +16031,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +16068,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +16105,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15586,7 +16142,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +16179,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +16216,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +16253,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15714,11 +16286,15 @@
         <v>3265.56540737</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +16323,15 @@
         <v>3343.99680737</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15780,11 +16360,15 @@
         <v>5834.44186173</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15813,11 +16397,15 @@
         <v>5564.34296173</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15846,11 +16434,15 @@
         <v>5404.98016173</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15879,11 +16471,15 @@
         <v>5459.72876173</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15912,11 +16508,15 @@
         <v>5211.88746173</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15945,11 +16545,15 @@
         <v>5211.88746173</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +16582,15 @@
         <v>5496.63656173</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16011,11 +16619,15 @@
         <v>5780.76286173</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16044,11 +16656,15 @@
         <v>5281.576961729999</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16077,11 +16693,15 @@
         <v>4946.862182489999</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +16734,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +16771,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +16808,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +16845,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16246,7 +16882,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +16919,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +16956,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16341,11 +16989,15 @@
         <v>4646.00428249</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16378,7 +17030,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16407,11 +17063,15 @@
         <v>5072.63452314</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16440,14 +17100,16 @@
         <v>5220.75472314</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
@@ -16473,7 +17135,7 @@
         <v>5316.81352314</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16506,7 +17168,7 @@
         <v>5299.98832314</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16539,7 +17201,7 @@
         <v>4921.10552389</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16605,7 +17267,7 @@
         <v>3804.63872389</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16638,7 +17300,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16671,7 +17333,7 @@
         <v>3562.74622389</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16935,7 +17597,7 @@
         <v>43.63335130999997</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16968,7 +17630,7 @@
         <v>347.22255131</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17001,7 +17663,7 @@
         <v>275.32445131</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17034,7 +17696,7 @@
         <v>494.53485131</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17067,7 +17729,7 @@
         <v>743.12345131</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17100,7 +17762,7 @@
         <v>652.6724513099999</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17133,7 +17795,7 @@
         <v>734.21945131</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17166,7 +17828,7 @@
         <v>1034.34685131</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17199,7 +17861,7 @@
         <v>238.74772945</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17232,7 +17894,7 @@
         <v>713.4475294499999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17265,7 +17927,7 @@
         <v>392.8946294499999</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17298,7 +17960,7 @@
         <v>526.39672945</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17331,7 +17993,7 @@
         <v>548.93702945</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17364,7 +18026,7 @@
         <v>252.3143294499999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17397,7 +18059,7 @@
         <v>114.2721294499999</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17430,7 +18092,7 @@
         <v>114.2721294499999</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17463,7 +18125,7 @@
         <v>-47.39487055000006</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17496,7 +18158,7 @@
         <v>-47.39487055000006</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17562,7 +18224,7 @@
         <v>12.43132944999994</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17595,7 +18257,7 @@
         <v>31.86722944999994</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17628,7 +18290,7 @@
         <v>41.37752944999994</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17661,7 +18323,7 @@
         <v>74.98562944999995</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17694,7 +18356,7 @@
         <v>172.3506294499999</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17727,7 +18389,7 @@
         <v>310.0858294499999</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -23238,11 +23900,17 @@
         <v>-2399.98875909</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>62950</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23275,7 +23943,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23308,7 +23980,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23341,7 +24017,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23374,7 +24054,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23407,7 +24091,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23440,7 +24128,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23473,7 +24165,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23502,11 +24198,17 @@
         <v>-2661.66199348</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>62650</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23535,11 +24237,17 @@
         <v>-2660.03099348</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>62400</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23568,11 +24276,17 @@
         <v>-2671.41919348</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>62700</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23601,11 +24315,17 @@
         <v>-2662.41549777</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>62400</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23638,7 +24358,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23671,7 +24395,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23704,7 +24432,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23737,7 +24469,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23766,11 +24502,17 @@
         <v>-2874.57469777</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>62500</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23799,11 +24541,17 @@
         <v>-2957.19519777</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>62500</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23832,11 +24580,17 @@
         <v>-3132.98219777</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>62300</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23865,11 +24619,17 @@
         <v>-3238.43449777</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>62200</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23898,11 +24658,17 @@
         <v>-3238.43449777</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>62150</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23931,11 +24697,17 @@
         <v>-3294.02639777</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>62150</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23964,11 +24736,17 @@
         <v>-3186.23059777</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>61900</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23997,11 +24775,17 @@
         <v>-3192.43059777</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>62300</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24030,11 +24814,17 @@
         <v>-3184.20059777</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>62050</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24063,11 +24853,17 @@
         <v>-3166.39539777</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>62100</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24096,11 +24892,17 @@
         <v>-3202.38081383</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>62250</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24129,11 +24931,17 @@
         <v>-3185.46671383</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>62100</v>
+      </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24162,11 +24970,17 @@
         <v>-3190.26671383</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>62150</v>
+      </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24195,11 +25009,17 @@
         <v>-3154.01201383</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>62000</v>
+      </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24228,11 +25048,17 @@
         <v>-3035.46411383</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>62050</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24261,11 +25087,17 @@
         <v>-2979.91471383</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>62100</v>
+      </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24294,11 +25126,17 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>62200</v>
+      </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24327,11 +25165,17 @@
         <v>-2904.36141383</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>62300</v>
+      </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24364,7 +25208,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24397,7 +25245,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24430,7 +25282,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24463,7 +25319,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24496,7 +25356,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24529,7 +25393,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24562,7 +25430,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24595,7 +25467,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24628,7 +25504,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24661,7 +25541,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24694,7 +25578,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +25615,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +25652,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24793,7 +25689,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +25726,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24859,7 +25763,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24892,7 +25800,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24925,7 +25837,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +25874,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24991,7 +25911,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25024,7 +25948,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25057,7 +25985,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25090,7 +26022,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25123,7 +26059,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25156,7 +26096,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25189,7 +26133,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25222,7 +26170,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25255,7 +26207,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25288,7 +26244,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25321,7 +26281,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25354,7 +26318,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25387,7 +26355,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25420,7 +26392,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25453,7 +26429,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25486,7 +26466,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25519,7 +26503,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25552,7 +26540,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25585,7 +26577,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25618,7 +26614,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25651,7 +26651,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25684,7 +26688,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25717,7 +26725,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25750,7 +26762,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25783,7 +26799,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25816,7 +26836,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25849,7 +26873,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25882,7 +26910,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25915,7 +26947,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25948,7 +26984,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25981,7 +27021,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26014,7 +27058,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26047,7 +27095,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26080,7 +27132,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +27169,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26146,7 +27206,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26179,7 +27243,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26212,7 +27280,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26241,11 +27313,15 @@
         <v>-1367.47950414</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26274,11 +27350,15 @@
         <v>-1364.03390414</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26311,7 +27391,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26344,7 +27428,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26377,7 +27465,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26410,7 +27502,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26443,7 +27539,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26476,7 +27576,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26509,7 +27613,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26542,7 +27650,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26575,7 +27687,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26608,7 +27724,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26641,7 +27761,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26674,7 +27798,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26707,7 +27835,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26740,7 +27872,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26773,7 +27909,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26806,7 +27946,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26839,7 +27983,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26872,7 +28020,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26905,7 +28057,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26938,7 +28094,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26971,7 +28131,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27004,7 +28168,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27037,7 +28205,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27070,7 +28242,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27099,11 +28275,17 @@
         <v>-2026.94444478</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>63700</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27132,11 +28314,17 @@
         <v>-2041.60724478</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>63850</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27169,7 +28357,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27202,7 +28394,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27231,11 +28427,17 @@
         <v>-2344.65964478</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>63500</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +28470,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27301,7 +28507,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27334,7 +28544,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27363,11 +28577,17 @@
         <v>-2368.153733300001</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>63350</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27400,7 +28620,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27429,11 +28653,17 @@
         <v>-2353.980233300001</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>63600</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27466,7 +28696,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27499,7 +28733,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27532,7 +28770,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27565,7 +28807,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27598,7 +28844,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27631,7 +28881,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27664,7 +28918,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27697,7 +28955,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27730,7 +28992,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27763,7 +29029,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27796,7 +29066,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27829,7 +29103,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27862,7 +29140,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27895,7 +29177,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27928,7 +29214,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27961,7 +29251,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27994,7 +29288,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28027,7 +29325,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28060,7 +29362,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28093,7 +29399,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28126,7 +29436,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28159,7 +29473,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28192,7 +29510,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28225,7 +29547,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28258,7 +29584,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28291,7 +29621,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28324,7 +29658,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28357,7 +29695,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28390,7 +29732,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28423,7 +29769,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28456,7 +29806,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28489,7 +29843,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28522,7 +29880,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28555,7 +29917,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28588,7 +29954,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28621,7 +29991,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28654,7 +30028,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28687,7 +30065,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28720,7 +30102,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28753,7 +30139,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28786,7 +30176,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28819,7 +30213,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28852,7 +30250,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28885,7 +30287,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28918,7 +30324,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28951,7 +30361,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28984,7 +30398,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29017,7 +30435,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29050,7 +30472,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29083,7 +30509,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29116,7 +30546,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29149,7 +30583,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29182,7 +30620,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29215,7 +30657,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29248,7 +30694,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29281,7 +30731,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29314,7 +30768,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29347,7 +30805,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29380,7 +30842,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29409,11 +30875,17 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>64000</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29442,11 +30914,17 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>63850</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29475,11 +30953,17 @@
         <v>-2614.0481333</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>63850</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29508,11 +30992,17 @@
         <v>-2609.4064333</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>63850</v>
+      </c>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29541,11 +31031,17 @@
         <v>-2609.4064333</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>64100</v>
+      </c>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29578,7 +31074,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29611,7 +31111,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29644,7 +31148,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29677,7 +31185,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29710,7 +31222,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29743,7 +31259,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29776,7 +31296,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29809,7 +31333,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29842,7 +31370,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29875,7 +31407,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29908,7 +31444,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29941,7 +31481,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29974,7 +31518,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30007,7 +31555,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30040,7 +31592,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30073,7 +31629,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30106,7 +31666,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30139,7 +31703,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30172,7 +31740,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30205,7 +31777,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30234,11 +31810,17 @@
         <v>-2002.350733300001</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>64600</v>
+      </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30267,11 +31849,17 @@
         <v>-2027.299333300001</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>64600</v>
+      </c>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30300,11 +31888,17 @@
         <v>-1968.755633300001</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>64550</v>
+      </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30333,11 +31927,17 @@
         <v>-1968.740177350001</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>64600</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30370,7 +31970,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30403,7 +32007,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30436,7 +32044,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30469,7 +32081,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30498,11 +32114,17 @@
         <v>-1544.559277350001</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>64750</v>
+      </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30535,7 +32157,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30568,7 +32194,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30601,7 +32231,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30634,7 +32268,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30667,7 +32305,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30700,7 +32342,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30733,7 +32379,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30766,7 +32416,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30799,7 +32453,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30832,7 +32490,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30865,7 +32527,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30898,7 +32564,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30931,7 +32601,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30964,7 +32638,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30997,7 +32675,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31030,7 +32712,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31063,7 +32749,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31096,7 +32786,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31129,7 +32823,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31162,7 +32860,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31195,7 +32897,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31228,7 +32934,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31261,7 +32971,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31294,7 +33008,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31327,7 +33045,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31360,7 +33082,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31393,7 +33119,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31426,7 +33156,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31459,7 +33193,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31492,7 +33230,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31525,7 +33267,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31558,7 +33304,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31591,7 +33341,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31624,7 +33378,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31657,7 +33415,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31690,7 +33452,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31723,7 +33489,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31756,7 +33526,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31789,7 +33563,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31822,7 +33600,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31855,7 +33637,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31888,7 +33674,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31921,7 +33711,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31954,7 +33748,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31987,7 +33785,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32020,7 +33822,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32053,7 +33859,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32086,7 +33896,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32119,7 +33933,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32152,7 +33970,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32185,7 +34007,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32218,7 +34044,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32251,7 +34081,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32284,7 +34118,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32317,7 +34155,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32350,7 +34192,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32383,7 +34229,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32416,7 +34266,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32449,7 +34303,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32482,7 +34340,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32515,7 +34377,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32548,7 +34414,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32581,7 +34451,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32614,7 +34488,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32647,7 +34525,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32680,7 +34562,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32713,7 +34599,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -32746,7 +34636,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -32779,7 +34673,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -32812,7 +34710,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -32845,7 +34747,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -32878,7 +34784,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -32911,7 +34821,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -32944,7 +34858,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -32977,7 +34895,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33010,7 +34932,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33043,7 +34969,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33076,7 +35006,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33109,7 +35043,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33142,7 +35080,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33175,7 +35117,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33208,7 +35154,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33241,7 +35191,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33274,7 +35228,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33307,7 +35265,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33340,7 +35302,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33373,7 +35339,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33406,7 +35376,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33439,7 +35413,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33472,7 +35450,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33505,7 +35487,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33538,7 +35524,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33571,7 +35561,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33604,7 +35598,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33637,7 +35635,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33670,7 +35672,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33703,7 +35709,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33736,7 +35746,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33769,7 +35783,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33802,7 +35820,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33835,7 +35857,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33868,7 +35894,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33901,7 +35931,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33934,7 +35968,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33967,7 +36005,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34000,7 +36042,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34033,7 +36079,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34066,7 +36116,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34099,7 +36153,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34132,7 +36190,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34165,7 +36227,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34198,7 +36264,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34231,7 +36301,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34264,7 +36338,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34297,7 +36375,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34330,7 +36412,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34363,7 +36449,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34396,7 +36486,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34429,7 +36523,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34462,7 +36560,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34495,7 +36597,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34528,7 +36634,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34561,7 +36671,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34594,7 +36708,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34627,7 +36745,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34660,7 +36782,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34693,7 +36819,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34726,7 +36856,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34759,7 +36893,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34792,7 +36930,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34825,7 +36967,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34858,7 +37004,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34891,7 +37041,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34924,7 +37078,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34957,7 +37115,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34990,7 +37152,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35023,7 +37189,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35056,7 +37226,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35089,7 +37263,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35122,7 +37300,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35155,7 +37337,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35188,7 +37374,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35221,7 +37411,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35254,7 +37448,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35287,7 +37485,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35320,7 +37522,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35353,7 +37559,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35386,7 +37596,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35419,7 +37633,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35452,7 +37670,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35485,7 +37707,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35518,7 +37744,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35551,7 +37781,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35584,7 +37818,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35617,7 +37855,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35650,7 +37892,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35683,7 +37929,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35716,7 +37966,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35749,7 +38003,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35782,7 +38040,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35815,7 +38077,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35848,7 +38114,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35881,7 +38151,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35914,7 +38188,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35947,7 +38225,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35980,7 +38262,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36013,7 +38299,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36046,7 +38336,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36079,7 +38373,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36112,7 +38410,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36145,7 +38447,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36178,7 +38484,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36211,7 +38521,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36244,7 +38558,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36277,7 +38595,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36310,7 +38632,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -36343,7 +38669,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -36376,7 +38706,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -36409,7 +38743,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -36442,7 +38780,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -36475,7 +38817,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -36508,7 +38854,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -36541,7 +38891,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -36574,7 +38928,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -36607,7 +38965,11 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36640,7 +39002,11 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36673,7 +39039,11 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36706,7 +39076,11 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36739,7 +39113,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36772,7 +39150,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -36805,7 +39187,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -36838,7 +39224,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -36871,7 +39261,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -36904,7 +39298,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -36937,7 +39335,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -36970,7 +39372,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37003,7 +39409,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37036,7 +39446,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37069,7 +39483,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37102,7 +39520,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37135,7 +39557,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -37168,7 +39594,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -37201,7 +39631,11 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -37234,7 +39668,11 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -37267,7 +39705,11 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -37300,7 +39742,11 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -37333,7 +39779,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -37366,7 +39816,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -37399,7 +39853,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -37432,7 +39890,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -37465,7 +39927,11 @@
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -37498,7 +39964,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -37531,7 +40001,11 @@
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -37564,7 +40038,11 @@
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -37597,7 +40075,11 @@
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -37630,7 +40112,11 @@
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -37663,7 +40149,11 @@
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -37696,7 +40186,11 @@
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -37729,7 +40223,11 @@
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -37762,7 +40260,11 @@
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -37795,13 +40297,17 @@
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
       <c r="M1098" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>